--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_equalweightpool.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_equalweightpool.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Row</t>
   </si>
@@ -166,6 +166,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -241,7 +307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -259,45 +325,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0">
-        <v>0.31003074100010858</v>
+        <v>0.30995030401720053</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -329,317 +395,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30408300333901278</v>
+        <v>0.3040718621835608</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0053850070396539492</v>
+        <v>-0.0053712655749828921</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0002226873496545381</v>
+        <v>0.00021751932506205947</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0022107237216274691</v>
+        <v>-0.002154772126341054</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00034033544473244411</v>
+        <v>0.00034124346655849336</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00026056381796957229</v>
+        <v>-0.00025933402887663059</v>
       </c>
       <c r="I3" s="0">
-        <v>-9.8408163752118226e-05</v>
+        <v>-9.5776351640067405e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0014439422875202612</v>
+        <v>0.0014439434565803877</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30134900912110452</v>
+        <v>0.30095461904884196</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0023262156740170882</v>
+        <v>-0.0027007833276229574</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0010639859810578549</v>
+        <v>0.0010560876359296304</v>
       </c>
       <c r="F4" s="0">
-        <v>6.4408825536224528e-05</v>
+        <v>6.4253866815975968e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00015726790928369212</v>
+        <v>0.00015706546942532201</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0018467839352095791</v>
+        <v>-0.0018380868719951263</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00019077775045649856</v>
+        <v>0.00018165535839600343</v>
       </c>
       <c r="K4" s="0">
-        <v>-3.7435075015745944e-05</v>
+        <v>-3.7435265667684625e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B5" s="0">
-        <v>0.305782292243232</v>
+        <v>0.30585880894429501</v>
       </c>
       <c r="C5" s="0">
-        <v>0.010965433135808502</v>
+        <v>0.011442692473081601</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.005745125976940121</v>
+        <v>-0.0057495412481816622</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00069594729624595272</v>
+        <v>0.0007151817618350388</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0011421336935602861</v>
+        <v>0.0011197859938279486</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0020292468850932228</v>
+        <v>-0.0020268756620531016</v>
       </c>
       <c r="H5" s="0">
-        <v>9.9125778974298596e-05</v>
+        <v>9.7950226966335153e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00055162519923326458</v>
+        <v>-0.00055164293768455877</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00014335872119503046</v>
+        <v>-0.00014336071233855829</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B6" s="0">
-        <v>0.32276741749671217</v>
+        <v>0.32274297855076395</v>
       </c>
       <c r="C6" s="0">
-        <v>0.020065057172305629</v>
+        <v>0.019974638536148268</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00068279025939882811</v>
+        <v>-0.00068213905944316232</v>
       </c>
       <c r="F6" s="0">
-        <v>3.586359518499928e-05</v>
+        <v>3.7157577308440897e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.6619729979494097e-06</v>
+        <v>-2.4256554430993207e-06</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0012018890379843089</v>
+        <v>-0.0012136065679540632</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0012294542436293576</v>
+        <v>-0.0012294552241474133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B7" s="0">
-        <v>0.30764982541668717</v>
+        <v>0.30761177401231937</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0044137285621707687</v>
+        <v>-0.0044273649000430996</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0026220647130207205</v>
+        <v>-0.002600686046821983</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0085529684208452139</v>
+        <v>-0.0085691464355290448</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0011264548916569475</v>
+        <v>0.0011223611278006606</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00024371906031266886</v>
+        <v>0.00024263536285114073</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00089900433595802021</v>
+        <v>-0.00089900364670225663</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B8" s="0">
-        <v>0.2497427525927291</v>
+        <v>0.25019645202814311</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.057700622338499832</v>
+        <v>-0.05722038976859592</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-7.1335853137071128e-05</v>
+        <v>-6.8611443609356074e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00027607875699353168</v>
+        <v>-0.00027537766601826353</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-6.0402508586619937e-05</v>
+        <v>-6.1250545798344249e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-5.5525716847240883e-05</v>
+        <v>-4.657826615698986e-05</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00025689235010628586</v>
+        <v>0.00025688570600274074</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B9" s="0">
-        <v>0.25763789904107348</v>
+        <v>0.25809068282547526</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.010039912621636265</v>
+        <v>0.01008181288044566</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0026340405588911849</v>
+        <v>-0.0026426501251446276</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0033119865396694617</v>
+        <v>-0.0033187827016197525</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0030574657541621911</v>
+        <v>0.0030302215888688552</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00014397971029986409</v>
+        <v>-0.00014405567747046057</v>
       </c>
       <c r="I9" s="0">
-        <v>0.00042993170055484562</v>
+        <v>0.00042984276341204684</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00045784318085162479</v>
+        <v>0.00045784206884036394</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0">
-        <v>0.34975546812485087</v>
+        <v>0.35007908033238705</v>
       </c>
       <c r="C10" s="0">
-        <v>0.093666869606815792</v>
+        <v>0.093529143852494098</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0011739356199613118</v>
+        <v>-0.001166278204748407</v>
       </c>
       <c r="F10" s="0">
-        <v>-2.3252238711741085e-05</v>
+        <v>-2.3447854393231712e-05</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>2.6151640253643584e-05</v>
+        <v>2.6183822140070506e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.001142804102239938</v>
+        <v>0.0011399283016942101</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0026626655053567845</v>
+        <v>-0.0026587251606346313</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0011415970984978152</v>
+        <v>0.0011415927503597989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B11" s="0">
-        <v>0.33724066546573866</v>
+        <v>0.33758961689237632</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.044076102073004129</v>
+        <v>-0.043967231907637586</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0059275202840437984</v>
+        <v>0.0058923252672639604</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0076266865090280408</v>
+        <v>0.0076012814540390976</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0058297721764913341</v>
+        <v>0.0058231723950838638</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0016870886588390469</v>
+        <v>0.0016880113072155977</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0074289280925380115</v>
+        <v>0.0074116738373836127</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0030613036929517667</v>
+        <v>0.003061304206640747</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.26823028143095728</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.064158193642574288</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.0028090780366104404</v>
+      </c>
+      <c r="F12" s="0">
+        <v>2.6474738809491305e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-1.4603632978030841e-05</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0038343266517918131</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.0041877643094948569</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_equalweightpool.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_equalweightpool.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Row</t>
   </si>
@@ -232,6 +232,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -307,16 +448,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.77734375" customWidth="true"/>
     <col min="6" max="6" width="15.77734375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.64453125" customWidth="true"/>
@@ -325,45 +466,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B2" s="0">
-        <v>0.30995030401720053</v>
+        <v>0.31005826695659611</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -395,352 +536,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B3" s="0">
-        <v>0.3040718621835608</v>
+        <v>0.30407213183850701</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0053712655749828921</v>
+        <v>-0.0054315166054246921</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00021751932506205947</v>
+        <v>0.00021897785852813696</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.002154772126341054</v>
+        <v>-0.0021996905043774684</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00034124346655849336</v>
+        <v>0.00034315648143397152</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00025933402887663059</v>
+        <v>-0.00026119192618355013</v>
       </c>
       <c r="I3" s="0">
-        <v>-9.5776351640067405e-05</v>
+        <v>-9.9814695672510446e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0014439434565803877</v>
+        <v>0.0014439442736069452</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30095461904884196</v>
+        <v>0.30128790532096245</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0027007833276229574</v>
+        <v>-0.0023753124986104547</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0010560876359296304</v>
+        <v>0.0010561235405659071</v>
       </c>
       <c r="F4" s="0">
-        <v>6.4253866815975968e-05</v>
+        <v>6.1940514502783863e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00015706546942532201</v>
+        <v>0.00015358937518269059</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0018380868719951263</v>
+        <v>-0.0018184299061304279</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00018165535839600343</v>
+        <v>0.00017531313521888133</v>
       </c>
       <c r="K4" s="0">
-        <v>-3.7435265667684625e-05</v>
+        <v>-3.7450678273931448e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30585880894429501</v>
+        <v>0.30545105001441314</v>
       </c>
       <c r="C5" s="0">
-        <v>0.011442692473081601</v>
+        <v>0.010780332053963903</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0057495412481816622</v>
+        <v>-0.0057545898311041222</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0007151817618350388</v>
+        <v>0.00069770435576507815</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0011197859938279486</v>
+        <v>0.0010658641628879474</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0020268756620531016</v>
+        <v>-0.0020294079481146849</v>
       </c>
       <c r="H5" s="0">
-        <v>9.7950226966335153e-05</v>
+        <v>9.8742077188309615e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00055164293768455877</v>
+        <v>-0.00055214568718820725</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00014336071233855829</v>
+        <v>-0.00014335448994745592</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B6" s="0">
-        <v>0.32274297855076395</v>
+        <v>0.32281940208182053</v>
       </c>
       <c r="C6" s="0">
-        <v>0.019974638536148268</v>
+        <v>0.020467270125982255</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00068213905944316232</v>
+        <v>-0.00068343427796754592</v>
       </c>
       <c r="F6" s="0">
-        <v>3.7157577308440897e-05</v>
+        <v>3.8327889662909119e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-2.4256554430993207e-06</v>
+        <v>-3.3723123181650502e-06</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0012136065679540632</v>
+        <v>-0.0012209796383346567</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0012294552241474133</v>
+        <v>-0.0012294597196174095</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B7" s="0">
-        <v>0.30761177401231937</v>
+        <v>0.30778441512364763</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0044273649000430996</v>
+        <v>-0.004415047473465555</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.002600686046821983</v>
+        <v>-0.0025625748523140789</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0085691464355290448</v>
+        <v>-0.0085271229866330026</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0011223611278006606</v>
+        <v>0.0011268819340720549</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00024263536285114073</v>
+        <v>0.00024188315502607252</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00089900364670225663</v>
+        <v>-0.00089900673485843186</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B8" s="0">
-        <v>0.25019645202814311</v>
+        <v>0.24976603325454233</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.05722038976859592</v>
+        <v>-0.05784144977645321</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-6.8611443609356074e-05</v>
+        <v>-7.0622638863188333e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00027537766601826353</v>
+        <v>-0.0002755371669899624</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-6.1250545798344249e-05</v>
+        <v>-5.9084093966399005e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-4.657826615698986e-05</v>
+        <v>-2.8574349807309629e-05</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00025688570600274074</v>
+        <v>0.00025688615697472272</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B9" s="0">
-        <v>0.25809068282547526</v>
+        <v>0.25755179492126323</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.01008181288044566</v>
+        <v>0.0099587304266807002</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0026426501251446276</v>
+        <v>-0.0026530305184740456</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0033187827016197525</v>
+        <v>-0.0033237183490246571</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0030302215888688552</v>
+        <v>0.003061994640041945</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00014405567747046057</v>
+        <v>-0.00014581326258987151</v>
       </c>
       <c r="I9" s="0">
-        <v>0.00042984276341204684</v>
+        <v>0.00042975318464338284</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00045784206884036394</v>
+        <v>0.00045784554544348044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B10" s="0">
-        <v>0.35007908033238705</v>
+        <v>0.35030177315866429</v>
       </c>
       <c r="C10" s="0">
-        <v>0.093529143852494098</v>
+        <v>0.094235351578060372</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.001166278204748407</v>
+        <v>-0.0011826807939173663</v>
       </c>
       <c r="F10" s="0">
-        <v>-2.3447854393231712e-05</v>
+        <v>-2.5998256180548767e-05</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>2.6183822140070506e-05</v>
+        <v>2.6045829235238139e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.0011399283016942101</v>
+        <v>0.0011519970809291049</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0026587251606346313</v>
+        <v>-0.0025963313834343154</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0011415927503597989</v>
+        <v>0.0011415941827084275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B11" s="0">
-        <v>0.33758961689237632</v>
+        <v>0.33732663976879085</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.043967231907637586</v>
+        <v>-0.044338887063150527</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0058923252672639604</v>
+        <v>0.0058635039996185216</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0076012814540390976</v>
+        <v>0.0074382341177438799</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0058231723950838638</v>
+        <v>0.0058523071929366599</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0016880113072155977</v>
+        <v>0.0016836424293030863</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0074116738373836127</v>
+        <v>0.0074647618453534221</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.003061304206640747</v>
+        <v>0.0030613040883216147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B12" s="0">
-        <v>0.26823028143095728</v>
+        <v>0.29346189376009446</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.064158193642574288</v>
+        <v>-0.065144338598843124</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0028090780366104404</v>
+        <v>0.0029845406317107913</v>
       </c>
       <c r="F12" s="0">
-        <v>2.6474738809491305e-05</v>
+        <v>0.0033528736622034272</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-1.4603632978030841e-05</v>
+        <v>0.002358373605052077</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0038343266517918131</v>
+        <v>0.016693585224250997</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.0041877643094948569</v>
+        <v>-0.004109780533070595</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.22257106195212709</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.032124218655999445</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.010682078747304988</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.032302997137095793</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.00042709371291816794</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00044117663606528783</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00069184160332336978</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.015585582809870324</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.088805288564586582</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.10572260227333008</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.00030781145034667424</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.00035848092622354561</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00017281100427265253</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.028280893013682078</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>1.4241419322075233e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_equalweightpool.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_equalweightpool.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Row</t>
   </si>
@@ -373,6 +373,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -448,14 +523,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.77734375" customWidth="true"/>
     <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
@@ -466,42 +541,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B2" s="0">
         <v>0.31005826695659611</v>
@@ -536,7 +611,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B3" s="0">
         <v>0.30407213183850701</v>
@@ -571,7 +646,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B4" s="0">
         <v>0.30128790532096245</v>
@@ -606,7 +681,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B5" s="0">
         <v>0.30545105001441314</v>
@@ -641,7 +716,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0">
         <v>0.32281940208182053</v>
@@ -676,7 +751,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B7" s="0">
         <v>0.30778441512364763</v>
@@ -711,7 +786,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0">
         <v>0.24976603325454233</v>
@@ -746,7 +821,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B9" s="0">
         <v>0.25755179492126323</v>
@@ -781,7 +856,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B10" s="0">
         <v>0.35030177315866429</v>
@@ -816,7 +891,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B11" s="0">
         <v>0.33732663976879085</v>
@@ -851,7 +926,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B12" s="0">
         <v>0.29346189376009446</v>
@@ -886,7 +961,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B13" s="0">
         <v>0.22257106195212709</v>
@@ -921,37 +996,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B14" s="0">
-        <v>0.088805288564586582</v>
+        <v>0.13162122970920007</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.10572260227333008</v>
+        <v>-0.088806115668007612</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.00030781145034667424</v>
+        <v>-0.00047583450592327193</v>
       </c>
       <c r="F14" s="0">
-        <v>0.00035848092622354561</v>
+        <v>-2.9035293693272341e-05</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00017281100427265253</v>
+        <v>-0.0011750090730103188</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.028280893013682078</v>
+        <v>0.0015636004323151512</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1.4241419322075233e-05</v>
+        <v>-0.0020274381346076509</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.091777352829080588</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.064250516033709695</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.00025342544626975118</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.011458373283180241</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0041759628463918239</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.0085188775777483849</v>
       </c>
     </row>
   </sheetData>
